--- a/biology/Zoologie/Aphrophora_alni/Aphrophora_alni.xlsx
+++ b/biology/Zoologie/Aphrophora_alni/Aphrophora_alni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphrophora alni, le cercope de l'aulne, est une espèce de petits insectes hémiptères de la famille des Aphrophoridae
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Long de 9 à 10 mm. Son pronotum présente une crête centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Long de 9 à 10 mm. Son pronotum présente une crête centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très commun en Europe.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit sur les arbres tel que l'aulne, le peuplier ou le saule. Adulte de juin à septembre, il fabrique une écume pour entourer ses œufs : le crachat de coucou. Les larves se nourrissent de sève et continuent de fabriquer de l'écume pour se dissimuler et se protéger.
 </t>
@@ -604,9 +622,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Trigophora cincta (Thunberg)[2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Trigophora cincta (Thunberg)</t>
         </is>
       </c>
     </row>
